--- a/data/sentence_explicitness_dataset_fewer_emojis_GOAT.xlsx
+++ b/data/sentence_explicitness_dataset_fewer_emojis_GOAT.xlsx
@@ -1,12 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="sentence_explicitness_dataset_f" sheetId="1" r:id="rId4"/>
+    <sheet r:id="rId1" sheetId="1" name="sentence_explicitness_dataset_f"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -1843,18 +1846,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1862,43 +1868,68 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="6">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -1925,22 +1956,82 @@
         <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1952,5240 +2043,5271 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
+  <dimension ref="A1:B636"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="80.63"/>
+    <col min="1" max="1" style="4" width="80.57642857142856" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="B9" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="B10" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="20.25">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="B22" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="24">
+      <c r="B23" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="25">
+      <c r="B24" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="26">
+      <c r="B25" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="27">
+      <c r="B26" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="28">
+      <c r="B27" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="29">
+      <c r="B28" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="30">
+      <c r="B29" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="31">
+      <c r="B30" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="32">
+      <c r="B31" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="33">
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="34">
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="35">
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="36">
+      <c r="B35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="37">
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="38">
+      <c r="B37" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="39">
+      <c r="B38" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="40">
+      <c r="B39" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="41">
+      <c r="B40" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="42">
+      <c r="B41" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="43">
+      <c r="B42" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="44">
+      <c r="B43" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="45">
+      <c r="B44" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="46">
+      <c r="B45" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="47">
+      <c r="B46" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="48">
+      <c r="B47" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="49">
+      <c r="B48" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="50">
+      <c r="B49" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="51">
+      <c r="B50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="52">
+      <c r="B51" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="53">
+      <c r="B52" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="54">
+      <c r="B53" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="55">
+      <c r="B54" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="56">
+      <c r="B55" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="57">
+      <c r="B56" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="58">
+      <c r="B57" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="59">
+      <c r="B58" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="60">
+      <c r="B59" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B60" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="61">
+      <c r="B60" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="62">
+      <c r="B61" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="63">
+      <c r="B62" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="64">
+      <c r="B63" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="65">
+      <c r="B64" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="66">
+      <c r="B65" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="67">
+      <c r="B66" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="68">
+      <c r="B67" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B68" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="69">
+      <c r="B68" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="70">
+      <c r="B69" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="71">
+      <c r="B70" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="72">
+      <c r="B71" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="73">
+      <c r="B72" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="74">
+      <c r="B73" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="75">
+      <c r="B74" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="76">
+      <c r="B75" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B76" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="77">
+      <c r="B76" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B77" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="78">
+      <c r="B77" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B78" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="79">
+      <c r="B78" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B79" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="80">
+      <c r="B79" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B80" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="81">
+      <c r="B80" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B81" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="82">
+      <c r="B81" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B82" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="83">
+      <c r="B82" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B83" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="84">
+      <c r="B83" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B84" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="85">
+      <c r="B84" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B85" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="86">
+      <c r="B85" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B86" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="87">
+      <c r="B86" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B87" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="88">
+      <c r="B87" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B88" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="89">
+      <c r="B88" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B89" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="90">
+      <c r="B89" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B90" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="91">
+      <c r="B90" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B91" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="92">
+      <c r="B91" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B92" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="93">
+      <c r="B92" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B93" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="94">
+      <c r="B93" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B94" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="95">
+      <c r="B94" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B95" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="96">
+      <c r="B95" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B96" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="97">
+      <c r="B96" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B97" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="98">
+      <c r="B97" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B98" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="99">
+      <c r="B98" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B99" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="100">
+      <c r="B99" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B100" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="101">
+      <c r="B100" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B101" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="102">
+      <c r="B101" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B102" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="103">
+      <c r="B102" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B103" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="104">
+      <c r="B103" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B104" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="105">
+      <c r="B104" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B105" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="106">
+      <c r="B105" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B106" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="107">
+      <c r="B106" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B107" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="108">
+      <c r="B107" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B108" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="109">
+      <c r="B108" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B109" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="110">
+      <c r="B109" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B110" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="111">
+      <c r="B110" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B111" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="112">
+      <c r="B111" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B112" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="113">
+      <c r="B112" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
       <c r="A113" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B113" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="114">
+      <c r="B113" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B114" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="115">
+      <c r="B114" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
       <c r="A115" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B115" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="116">
+      <c r="B115" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B116" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="117">
+      <c r="B116" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B117" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="118">
+      <c r="B117" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B118" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="119">
+      <c r="B118" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B119" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="120">
+      <c r="B119" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B120" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="121">
+      <c r="B120" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
       <c r="A121" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B121" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="122">
+      <c r="B121" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B122" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="123">
+      <c r="B122" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B123" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="124">
+      <c r="B123" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B124" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="125">
+      <c r="B124" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B125" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="126">
+      <c r="B125" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B126" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="127">
+      <c r="B126" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B127" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="128">
+      <c r="B127" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B128" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="129">
+      <c r="B128" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
       <c r="A129" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B129" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="130">
+      <c r="B129" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
       <c r="A130" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B130" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="131">
+      <c r="B130" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
       <c r="A131" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B131" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="132">
+      <c r="B131" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
       <c r="A132" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B132" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="133">
+      <c r="B132" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
       <c r="A133" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B133" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="134">
+      <c r="B133" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
       <c r="A134" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B134" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="135">
+      <c r="B134" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
       <c r="A135" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B135" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="136">
+      <c r="B135" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
       <c r="A136" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B136" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="137">
+      <c r="B136" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
       <c r="A137" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B137" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="138">
+      <c r="B137" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
       <c r="A138" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B138" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="139">
+      <c r="B138" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
       <c r="A139" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B139" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="140">
+      <c r="B139" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
       <c r="A140" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B140" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="141">
+      <c r="B140" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
       <c r="A141" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B141" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="142">
+      <c r="B141" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
       <c r="A142" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B142" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="143">
+      <c r="B142" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
       <c r="A143" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B143" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="144">
+      <c r="B143" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
       <c r="A144" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B144" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="145">
+      <c r="B144" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
       <c r="A145" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B145" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="146">
+      <c r="B145" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
       <c r="A146" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B146" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="147">
+      <c r="B146" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
       <c r="A147" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B147" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="148">
+      <c r="B147" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
       <c r="A148" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B148" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="149">
+      <c r="B148" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
       <c r="A149" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B149" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="150">
+      <c r="B149" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
       <c r="A150" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B150" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="151">
+      <c r="B150" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
       <c r="A151" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B151" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="152">
+      <c r="B151" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
       <c r="A152" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B152" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="153">
+      <c r="B152" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
       <c r="A153" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B153" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="154">
+      <c r="B153" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
       <c r="A154" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B154" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="155">
+      <c r="B154" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
       <c r="A155" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B155" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="156">
+      <c r="B155" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
       <c r="A156" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B156" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="157">
+      <c r="B156" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
       <c r="A157" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B157" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="158">
+      <c r="B157" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
       <c r="A158" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B158" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="159">
+      <c r="B158" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
       <c r="A159" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B159" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="160">
+      <c r="B159" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
       <c r="A160" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B160" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="161">
+      <c r="B160" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
       <c r="A161" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B161" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="162">
+      <c r="B161" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
       <c r="A162" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B162" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="163">
+      <c r="B162" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
       <c r="A163" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B163" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="164">
+      <c r="B163" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
       <c r="A164" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B164" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="165">
+      <c r="B164" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
       <c r="A165" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B165" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="166">
+      <c r="B165" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
       <c r="A166" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B166" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="167">
+      <c r="B166" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
       <c r="A167" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B167" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="168">
+      <c r="B167" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
       <c r="A168" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B168" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="169">
+      <c r="B168" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
       <c r="A169" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B169" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="170">
+      <c r="B169" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
       <c r="A170" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B170" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="171">
+      <c r="B170" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
       <c r="A171" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B171" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="172">
+      <c r="B171" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
       <c r="A172" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B172" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="173">
+      <c r="B172" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
       <c r="A173" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B173" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="174">
+      <c r="B173" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
       <c r="A174" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B174" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="175">
+      <c r="B174" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
       <c r="A175" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B175" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="176">
+      <c r="B175" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
       <c r="A176" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B176" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="177">
+      <c r="B176" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
       <c r="A177" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B177" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="178">
+      <c r="B177" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
       <c r="A178" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B178" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="179">
+      <c r="B178" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
       <c r="A179" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B179" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="180">
+      <c r="B179" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
       <c r="A180" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B180" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="181">
+      <c r="B180" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
       <c r="A181" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B181" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="182">
+      <c r="B181" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
       <c r="A182" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B182" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="183">
+      <c r="B182" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
       <c r="A183" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B183" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="184">
+      <c r="B183" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
       <c r="A184" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B184" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="185">
+      <c r="B184" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
       <c r="A185" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B185" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="186">
+      <c r="B185" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
       <c r="A186" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B186" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="187">
+      <c r="B186" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
       <c r="A187" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B187" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="188">
+      <c r="B187" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
       <c r="A188" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B188" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="189">
+      <c r="B188" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
       <c r="A189" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B189" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="190">
+      <c r="B189" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
       <c r="A190" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B190" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="191">
+      <c r="B190" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
       <c r="A191" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B191" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="192">
+      <c r="B191" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
       <c r="A192" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B192" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="193">
+      <c r="B192" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
       <c r="A193" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B193" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="194">
+      <c r="B193" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
       <c r="A194" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B194" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="195">
+      <c r="B194" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
       <c r="A195" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B195" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="196">
+      <c r="B195" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
       <c r="A196" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B196" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="197">
+      <c r="B196" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
       <c r="A197" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B197" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="198">
+      <c r="B197" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
       <c r="A198" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B198" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="199">
+      <c r="B198" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
       <c r="A199" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B199" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="200">
+      <c r="B199" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
       <c r="A200" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B200" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="201">
+      <c r="B200" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
       <c r="A201" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B201" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="202">
+      <c r="B201" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
       <c r="A202" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B202" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="203">
+      <c r="B202" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
       <c r="A203" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B203" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="204">
+      <c r="B203" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
       <c r="A204" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B204" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="205">
+      <c r="B204" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
       <c r="A205" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B205" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="206">
+      <c r="B205" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
       <c r="A206" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B206" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="207">
+      <c r="B206" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
       <c r="A207" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B207" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="208">
+      <c r="B207" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
       <c r="A208" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B208" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="209">
+      <c r="B208" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
       <c r="A209" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B209" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="210">
+      <c r="B209" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
       <c r="A210" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B210" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="211">
+      <c r="B210" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
       <c r="A211" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B211" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="212">
+      <c r="B211" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
       <c r="A212" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B212" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="213">
+      <c r="B212" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
       <c r="A213" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B213" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="214">
+      <c r="B213" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
       <c r="A214" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B214" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="215">
+      <c r="B214" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
       <c r="A215" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B215" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="216">
+      <c r="B215" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
       <c r="A216" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B216" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="217">
+      <c r="B216" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
       <c r="A217" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B217" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="218">
+      <c r="B217" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
       <c r="A218" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B218" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="219">
+      <c r="B218" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
       <c r="A219" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B219" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="220">
+      <c r="B219" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
       <c r="A220" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B220" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="221">
+      <c r="B220" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
       <c r="A221" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B221" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="222">
+      <c r="B221" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
       <c r="A222" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B222" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="223">
+      <c r="B222" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
       <c r="A223" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B223" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="224">
+      <c r="B223" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
       <c r="A224" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B224" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="225">
+      <c r="B224" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
       <c r="A225" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B225" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="226">
+      <c r="B225" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
       <c r="A226" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B226" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="227">
+      <c r="B226" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
       <c r="A227" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B227" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="228">
+      <c r="B227" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
       <c r="A228" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B228" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="229">
+      <c r="B228" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
       <c r="A229" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B229" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="230">
+      <c r="B229" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
       <c r="A230" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B230" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="231">
+      <c r="B230" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
       <c r="A231" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B231" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="232">
+      <c r="B231" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
       <c r="A232" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B232" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="233">
+      <c r="B232" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
       <c r="A233" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B233" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="234">
+      <c r="B233" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
       <c r="A234" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B234" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="235">
+      <c r="B234" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
       <c r="A235" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B235" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="236">
+      <c r="B235" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
       <c r="A236" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B236" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="237">
+      <c r="B236" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
       <c r="A237" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B237" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="238">
+      <c r="B237" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
       <c r="A238" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B238" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="239">
+      <c r="B238" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75">
       <c r="A239" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B239" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="240">
+      <c r="B239" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
       <c r="A240" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B240" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="241">
+      <c r="B240" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75">
       <c r="A241" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B241" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="242">
+      <c r="B241" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75">
       <c r="A242" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B242" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="243">
+      <c r="B242" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75">
       <c r="A243" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B243" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="244">
+      <c r="B243" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75">
       <c r="A244" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B244" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="245">
+      <c r="B244" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75">
       <c r="A245" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B245" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="246">
+      <c r="B245" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75">
       <c r="A246" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B246" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="247">
+      <c r="B246" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75">
       <c r="A247" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B247" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="248">
+      <c r="B247" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75">
       <c r="A248" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B248" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="249">
+      <c r="B248" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75">
       <c r="A249" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B249" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="250">
+      <c r="B249" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75">
       <c r="A250" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B250" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="251">
+      <c r="B250" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75">
       <c r="A251" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B251" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="252">
+      <c r="B251" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75">
       <c r="A252" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B252" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="253">
+      <c r="B252" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75">
       <c r="A253" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B253" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="254">
+      <c r="B253" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75">
       <c r="A254" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B254" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="255">
+      <c r="B254" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75">
       <c r="A255" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B255" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="256">
+      <c r="B255" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75">
       <c r="A256" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B256" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="257">
+      <c r="B256" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75">
       <c r="A257" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B257" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="258">
+      <c r="B257" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75">
       <c r="A258" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B258" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="259">
+      <c r="B258" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75">
       <c r="A259" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B259" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="260">
+      <c r="B259" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75">
       <c r="A260" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B260" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="261">
+      <c r="B260" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75">
       <c r="A261" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B261" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="262">
+      <c r="B261" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75">
       <c r="A262" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B262" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="263">
+      <c r="B262" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75">
       <c r="A263" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B263" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="264">
+      <c r="B263" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75">
       <c r="A264" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B264" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="265">
+      <c r="B264" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75">
       <c r="A265" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B265" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="266">
+      <c r="B265" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75">
       <c r="A266" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B266" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="267">
+      <c r="B266" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75">
       <c r="A267" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B267" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="268">
+      <c r="B267" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75">
       <c r="A268" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B268" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="269">
+      <c r="B268" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75">
       <c r="A269" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B269" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="270">
+      <c r="B269" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75">
       <c r="A270" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B270" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="271">
+      <c r="B270" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75">
       <c r="A271" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B271" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="272">
+      <c r="B271" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75">
       <c r="A272" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B272" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="273">
+      <c r="B272" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="18.75">
       <c r="A273" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B273" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="274">
+      <c r="B273" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18.75">
       <c r="A274" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B274" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="275">
+      <c r="B274" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18.75">
       <c r="A275" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B275" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="276">
+      <c r="B275" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18.75">
       <c r="A276" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B276" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="277">
+      <c r="B276" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18.75">
       <c r="A277" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B277" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="278">
+      <c r="B277" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18.75">
       <c r="A278" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B278" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="279">
+      <c r="B278" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18.75">
       <c r="A279" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B279" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="280">
+      <c r="B279" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="18.75">
       <c r="A280" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B280" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="281">
+      <c r="B280" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18.75">
       <c r="A281" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B281" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="282">
+      <c r="B281" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="18.75">
       <c r="A282" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B282" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="283">
+      <c r="B282" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="18.75">
       <c r="A283" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B283" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="284">
+      <c r="B283" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="18.75">
       <c r="A284" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B284" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="285">
+      <c r="B284" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="18.75">
       <c r="A285" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B285" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="286">
+      <c r="B285" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="18.75">
       <c r="A286" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B286" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="287">
+      <c r="B286" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="18.75">
       <c r="A287" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B287" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="288">
+      <c r="B287" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="18.75">
       <c r="A288" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B288" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="289">
+      <c r="B288" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="18.75">
       <c r="A289" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B289" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="290">
+      <c r="B289" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="18.75">
       <c r="A290" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B290" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="291">
+      <c r="B290" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="18.75">
       <c r="A291" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B291" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="292">
+      <c r="B291" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="18.75">
       <c r="A292" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B292" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="293">
+      <c r="B292" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="18.75">
       <c r="A293" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B293" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="294">
+      <c r="B293" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="18.75">
       <c r="A294" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B294" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="295">
+      <c r="B294" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="18.75">
       <c r="A295" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B295" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="296">
+      <c r="B295" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="18.75">
       <c r="A296" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B296" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="297">
+      <c r="B296" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="18.75">
       <c r="A297" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B297" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="298">
+      <c r="B297" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="18.75">
       <c r="A298" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B298" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="299">
+      <c r="B298" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="18.75">
       <c r="A299" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B299" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="300">
+      <c r="B299" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="18.75">
       <c r="A300" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B300" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="301">
+      <c r="B300" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="18.75">
       <c r="A301" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B301" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="302">
+      <c r="B301" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="18.75">
       <c r="A302" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B302" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="303">
+      <c r="B302" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="18.75">
       <c r="A303" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B303" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="304">
+      <c r="B303" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="18.75">
       <c r="A304" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B304" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="305">
+      <c r="B304" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="18.75">
       <c r="A305" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B305" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="306">
+      <c r="B305" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="18.75">
       <c r="A306" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B306" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="307">
+      <c r="B306" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="18.75">
       <c r="A307" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B307" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="308">
+      <c r="B307" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="18.75">
       <c r="A308" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B308" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="309">
+      <c r="B308" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="18.75">
       <c r="A309" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B309" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="310">
+      <c r="B309" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="18.75">
       <c r="A310" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B310" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="311">
+      <c r="B310" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="18.75">
       <c r="A311" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B311" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="312">
+      <c r="B311" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="18.75">
       <c r="A312" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B312" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="313">
+      <c r="B312" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="18.75">
       <c r="A313" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B313" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="314">
+      <c r="B313" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="18.75">
       <c r="A314" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B314" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="315">
+      <c r="B314" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="18.75">
       <c r="A315" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B315" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="316">
+      <c r="B315" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="18.75">
       <c r="A316" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B316" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="317">
+      <c r="B316" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="18.75">
       <c r="A317" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B317" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="318">
+      <c r="B317" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="18.75">
       <c r="A318" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B318" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="319">
+      <c r="B318" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="18.75">
       <c r="A319" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B319" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="320">
+      <c r="B319" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="18.75">
       <c r="A320" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B320" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="321">
+      <c r="B320" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="18.75">
       <c r="A321" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B321" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="322">
+      <c r="B321" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="18.75">
       <c r="A322" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B322" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="323">
+      <c r="B322" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="18.75">
       <c r="A323" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B323" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="324">
+      <c r="B323" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="18.75">
       <c r="A324" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B324" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="325">
+      <c r="B324" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="18.75">
       <c r="A325" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B325" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="326">
+      <c r="B325" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="18.75">
       <c r="A326" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B326" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="327">
+      <c r="B326" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="18.75">
       <c r="A327" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B327" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="328">
+      <c r="B327" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="18.75">
       <c r="A328" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B328" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="329">
+      <c r="B328" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="18.75">
       <c r="A329" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B329" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="330">
+      <c r="B329" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="18.75">
       <c r="A330" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B330" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="331">
+      <c r="B330" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="18.75">
       <c r="A331" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B331" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="332">
+      <c r="B331" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="18.75">
       <c r="A332" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B332" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="333">
+      <c r="B332" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="18.75">
       <c r="A333" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B333" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="334">
+      <c r="B333" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="18.75">
       <c r="A334" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B334" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="335">
+      <c r="B334" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="18.75">
       <c r="A335" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B335" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="336">
+      <c r="B335" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="18.75">
       <c r="A336" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B336" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="337">
+      <c r="B336" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="18.75">
       <c r="A337" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B337" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="338">
+      <c r="B337" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="18.75">
       <c r="A338" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B338" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="339">
+      <c r="B338" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="18.75">
       <c r="A339" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B339" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="340">
+      <c r="B339" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="18.75">
       <c r="A340" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B340" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="341">
+      <c r="B340" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="18.75">
       <c r="A341" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B341" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="342">
+      <c r="B341" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="18.75">
       <c r="A342" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B342" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="343">
+      <c r="B342" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="18.75">
       <c r="A343" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B343" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="344">
+      <c r="B343" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="18.75">
       <c r="A344" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B344" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="345">
+      <c r="B344" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="18.75">
       <c r="A345" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B345" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="346">
+      <c r="B345" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="18.75">
       <c r="A346" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B346" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="347">
+      <c r="B346" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="18.75">
       <c r="A347" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B347" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="348">
+      <c r="B347" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="18.75">
       <c r="A348" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B348" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="349">
+      <c r="B348" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="18.75">
       <c r="A349" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B349" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="350">
+      <c r="B349" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="18.75">
       <c r="A350" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B350" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="351">
+      <c r="B350" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="18.75">
       <c r="A351" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B351" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="352">
+      <c r="B351" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="18.75">
       <c r="A352" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B352" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="353">
+      <c r="B352" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="18.75">
       <c r="A353" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B353" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="354">
+      <c r="B353" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="18.75">
       <c r="A354" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B354" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="355">
+      <c r="B354" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="18.75">
       <c r="A355" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B355" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="356">
+      <c r="B355" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="18.75">
       <c r="A356" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B356" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="357">
+      <c r="B356" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="18.75">
       <c r="A357" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B357" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="358">
+      <c r="B357" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="18.75">
       <c r="A358" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B358" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="359">
+      <c r="B358" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="18.75">
       <c r="A359" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B359" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="360">
+      <c r="B359" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="18.75">
       <c r="A360" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B360" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="361">
+      <c r="B360" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="18.75">
       <c r="A361" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B361" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="362">
+      <c r="B361" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="18.75">
       <c r="A362" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B362" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="363">
+      <c r="B362" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="18.75">
       <c r="A363" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B363" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="364">
+      <c r="B363" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="18.75">
       <c r="A364" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B364" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="365">
+      <c r="B364" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="18.75">
       <c r="A365" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B365" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="366">
+      <c r="B365" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="18.75">
       <c r="A366" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B366" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="367">
+      <c r="B366" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="18.75">
       <c r="A367" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B367" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="368">
+      <c r="B367" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="18.75">
       <c r="A368" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B368" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="369">
+      <c r="B368" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="18.75">
       <c r="A369" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B369" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="370">
+      <c r="B369" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="18.75">
       <c r="A370" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B370" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="371">
+      <c r="B370" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="18.75">
       <c r="A371" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B371" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="372">
+      <c r="B371" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="18.75">
       <c r="A372" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B372" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="373">
+      <c r="B372" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="18.75">
       <c r="A373" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B373" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="374">
+      <c r="B373" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="18.75">
       <c r="A374" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B374" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="375">
+      <c r="B374" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="18.75">
       <c r="A375" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B375" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="376">
+      <c r="B375" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="18.75">
       <c r="A376" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B376" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="377">
+      <c r="B376" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="18.75">
       <c r="A377" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B377" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="378">
+      <c r="B377" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="18.75">
       <c r="A378" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B378" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="379">
+      <c r="B378" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="18.75">
       <c r="A379" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B379" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="380">
+      <c r="B379" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="18.75">
       <c r="A380" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B380" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="381">
+      <c r="B380" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="18.75">
       <c r="A381" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B381" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="382">
+      <c r="B381" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="18.75">
       <c r="A382" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B382" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="383">
+      <c r="B382" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="18.75">
       <c r="A383" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B383" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="384">
+      <c r="B383" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="18.75">
       <c r="A384" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B384" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="385">
+      <c r="B384" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="18.75">
       <c r="A385" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B385" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="386">
+      <c r="B385" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="18.75">
       <c r="A386" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B386" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="387">
+      <c r="B386" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="18.75">
       <c r="A387" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B387" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="388">
+      <c r="B387" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="18.75">
       <c r="A388" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B388" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="389">
+      <c r="B388" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="18.75">
       <c r="A389" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B389" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="390">
+      <c r="B389" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="18.75">
       <c r="A390" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B390" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="391">
+      <c r="B390" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="18.75">
       <c r="A391" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B391" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="392">
+      <c r="B391" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="18.75">
       <c r="A392" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B392" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="393">
+      <c r="B392" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="18.75">
       <c r="A393" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B393" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="394">
+      <c r="B393" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="18.75">
       <c r="A394" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B394" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="395">
+      <c r="B394" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="18.75">
       <c r="A395" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B395" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="396">
+      <c r="B395" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="18.75">
       <c r="A396" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B396" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="397">
+      <c r="B396" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="18.75">
       <c r="A397" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B397" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="398">
+      <c r="B397" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="18.75">
       <c r="A398" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B398" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="399">
+      <c r="B398" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="18.75">
       <c r="A399" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B399" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="400">
+      <c r="B399" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="18.75">
       <c r="A400" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B400" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="401">
+      <c r="B400" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="18.75">
       <c r="A401" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B401" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="402">
+      <c r="B401" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="18.75">
       <c r="A402" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B402" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="403">
+      <c r="B402" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="18.75">
       <c r="A403" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B403" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="404">
+      <c r="B403" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="18.75">
       <c r="A404" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B404" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="405">
+      <c r="B404" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="18.75">
       <c r="A405" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B405" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="406">
+      <c r="B405" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="18.75">
       <c r="A406" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B406" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="407">
+      <c r="B406" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="18.75">
       <c r="A407" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B407" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="408">
+      <c r="B407" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="18.75">
       <c r="A408" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B408" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="409">
+      <c r="B408" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="18.75">
       <c r="A409" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B409" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="410">
+      <c r="B409" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="18.75">
       <c r="A410" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B410" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="411">
+      <c r="B410" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="18.75">
       <c r="A411" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B411" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="412">
+      <c r="B411" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="18.75">
       <c r="A412" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B412" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="413">
+      <c r="B412" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="18.75">
       <c r="A413" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B413" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="414">
+      <c r="B413" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="18.75">
       <c r="A414" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B414" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="415">
+      <c r="B414" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="18.75">
       <c r="A415" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B415" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="416">
+      <c r="B415" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="18.75">
       <c r="A416" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B416" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="417">
+      <c r="B416" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="18.75">
       <c r="A417" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B417" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="418">
+      <c r="B417" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="18.75">
       <c r="A418" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B418" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="419">
+      <c r="B418" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="18.75">
       <c r="A419" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B419" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="420">
+      <c r="B419" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="18.75">
       <c r="A420" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B420" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="421">
+      <c r="B420" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="18.75">
       <c r="A421" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B421" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="422">
+      <c r="B421" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="18.75">
       <c r="A422" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B422" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="423">
+      <c r="B422" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="18.75">
       <c r="A423" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="B423" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="424">
+      <c r="B423" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="18.75">
       <c r="A424" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B424" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="425">
+      <c r="B424" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="18.75">
       <c r="A425" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B425" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="426">
+      <c r="B425" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="18.75">
       <c r="A426" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B426" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="427">
+      <c r="B426" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="18.75">
       <c r="A427" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B427" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="428">
+      <c r="B427" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="18.75">
       <c r="A428" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B428" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="429">
+      <c r="B428" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="18.75">
       <c r="A429" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B429" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="430">
+      <c r="B429" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="18.75">
       <c r="A430" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B430" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="431">
+      <c r="B430" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="18.75">
       <c r="A431" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B431" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="432">
+      <c r="B431" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="18.75">
       <c r="A432" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B432" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="433">
+      <c r="B432" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="18.75">
       <c r="A433" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B433" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="434">
+      <c r="B433" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="18.75">
       <c r="A434" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B434" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="435">
+      <c r="B434" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="18.75">
       <c r="A435" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B435" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="436">
+      <c r="B435" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="18.75">
       <c r="A436" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B436" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="437">
+      <c r="B436" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="18.75">
       <c r="A437" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B437" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="438">
+      <c r="B437" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="18.75">
       <c r="A438" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B438" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="439">
+      <c r="B438" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="18.75">
       <c r="A439" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B439" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="440">
+      <c r="B439" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="18.75">
       <c r="A440" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B440" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="441">
+      <c r="B440" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="18.75">
       <c r="A441" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B441" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="442">
+      <c r="B441" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="18.75">
       <c r="A442" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B442" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="443">
+      <c r="B442" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="18.75">
       <c r="A443" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B443" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="444">
+      <c r="B443" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="18.75">
       <c r="A444" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B444" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="445">
+      <c r="B444" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="18.75">
       <c r="A445" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B445" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="446">
+      <c r="B445" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="18.75">
       <c r="A446" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B446" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="447">
+      <c r="B446" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="18.75">
       <c r="A447" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B447" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="448">
+      <c r="B447" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="18.75">
       <c r="A448" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B448" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="449">
+      <c r="B448" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="18.75">
       <c r="A449" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B449" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="450">
+      <c r="B449" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="18.75">
       <c r="A450" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B450" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="451">
+      <c r="B450" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="18.75">
       <c r="A451" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B451" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="452">
+      <c r="B451" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="18.75">
       <c r="A452" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B452" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="453">
+      <c r="B452" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="18.75">
       <c r="A453" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B453" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="454">
+      <c r="B453" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="18.75">
       <c r="A454" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B454" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="455">
+      <c r="B454" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="18.75">
       <c r="A455" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="B455" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="456">
+      <c r="B455" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="18.75">
       <c r="A456" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B456" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="457">
+      <c r="B456" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="18.75">
       <c r="A457" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B457" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="458">
+      <c r="B457" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="18.75">
       <c r="A458" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B458" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="459">
+      <c r="B458" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="18.75">
       <c r="A459" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B459" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="460">
+      <c r="B459" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="18.75">
       <c r="A460" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B460" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="461">
+      <c r="B460" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="18.75">
       <c r="A461" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B461" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="462">
+      <c r="B461" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="18.75">
       <c r="A462" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B462" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="463">
+      <c r="B462" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="18.75">
       <c r="A463" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B463" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="464">
+      <c r="B463" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="18.75">
       <c r="A464" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B464" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="465">
+      <c r="B464" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="18.75">
       <c r="A465" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B465" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="466">
+      <c r="B465" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="18.75">
       <c r="A466" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B466" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="467">
+      <c r="B466" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="18.75">
       <c r="A467" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B467" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="468">
+      <c r="B467" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="18.75">
       <c r="A468" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B468" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="469">
+      <c r="B468" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="18.75">
       <c r="A469" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B469" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="470">
+      <c r="B469" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="18.75">
       <c r="A470" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B470" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="471">
+      <c r="B470" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="18.75">
       <c r="A471" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B471" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="472">
+      <c r="B471" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="18.75">
       <c r="A472" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B472" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="473">
+      <c r="B472" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="18.75">
       <c r="A473" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B473" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="474">
+      <c r="B473" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="18.75">
       <c r="A474" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="B474" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="475">
+      <c r="B474" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="18.75">
       <c r="A475" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B475" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="476">
+      <c r="B475" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="18.75">
       <c r="A476" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="B476" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="477">
+      <c r="B476" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="18.75">
       <c r="A477" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="B477" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="478">
+      <c r="B477" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="18.75">
       <c r="A478" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="B478" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="479">
+      <c r="B478" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="18.75">
       <c r="A479" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B479" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="480">
+      <c r="B479" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="18.75">
       <c r="A480" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="B480" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="481">
+      <c r="B480" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="18.75">
       <c r="A481" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B481" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="482">
+      <c r="B481" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="482" customHeight="1" ht="18.75">
       <c r="A482" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B482" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="483">
+      <c r="B482" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="483" customHeight="1" ht="18.75">
       <c r="A483" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="B483" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="484">
+      <c r="B483" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="484" customHeight="1" ht="18.75">
       <c r="A484" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B484" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="485">
+      <c r="B484" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="485" customHeight="1" ht="18.75">
       <c r="A485" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="B485" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="486">
+      <c r="B485" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="486" customHeight="1" ht="18.75">
       <c r="A486" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="B486" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="487">
+      <c r="B486" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="487" customHeight="1" ht="18.75">
       <c r="A487" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B487" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="488">
+      <c r="B487" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="488" customHeight="1" ht="18.75">
       <c r="A488" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B488" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="489">
+      <c r="B488" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="489" customHeight="1" ht="18.75">
       <c r="A489" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="B489" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="490">
+      <c r="B489" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="490" customHeight="1" ht="18.75">
       <c r="A490" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="B490" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="491">
+      <c r="B490" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="491" customHeight="1" ht="18.75">
       <c r="A491" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="B491" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="492">
+      <c r="B491" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="492" customHeight="1" ht="18.75">
       <c r="A492" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="B492" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="493">
+      <c r="B492" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="493" customHeight="1" ht="18.75">
       <c r="A493" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B493" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="494">
+      <c r="B493" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="494" customHeight="1" ht="18.75">
       <c r="A494" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="B494" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="495">
+      <c r="B494" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="495" customHeight="1" ht="18.75">
       <c r="A495" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="B495" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="496">
+      <c r="B495" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="496" customHeight="1" ht="18.75">
       <c r="A496" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B496" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="497">
+      <c r="B496" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="497" customHeight="1" ht="18.75">
       <c r="A497" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B497" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="498">
+      <c r="B497" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="498" customHeight="1" ht="18.75">
       <c r="A498" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="B498" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="499">
+      <c r="B498" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="499" customHeight="1" ht="18.75">
       <c r="A499" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="B499" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="500">
+      <c r="B499" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="500" customHeight="1" ht="18.75">
       <c r="A500" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="B500" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="501">
+      <c r="B500" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="501" customHeight="1" ht="18.75">
       <c r="A501" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B501" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="502">
+      <c r="B501" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="502" customHeight="1" ht="18.75">
       <c r="A502" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B502" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="503">
+      <c r="B502" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="503" customHeight="1" ht="18.75">
       <c r="A503" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B503" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="504">
+      <c r="B503" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="504" customHeight="1" ht="18.75">
       <c r="A504" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B504" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="505">
+      <c r="B504" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="505" customHeight="1" ht="18.75">
       <c r="A505" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B505" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="506">
+      <c r="B505" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="506" customHeight="1" ht="18.75">
       <c r="A506" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="B506" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="507">
+      <c r="B506" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="507" customHeight="1" ht="18.75">
       <c r="A507" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="B507" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="508">
+      <c r="B507" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="508" customHeight="1" ht="18.75">
       <c r="A508" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="B508" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="509">
+      <c r="B508" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="509" customHeight="1" ht="18.75">
       <c r="A509" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B509" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="510">
+      <c r="B509" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="510" customHeight="1" ht="18.75">
       <c r="A510" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="B510" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="511">
+      <c r="B510" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="511" customHeight="1" ht="18.75">
       <c r="A511" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B511" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="512">
+      <c r="B511" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="512" customHeight="1" ht="18.75">
       <c r="A512" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B512" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="513">
+      <c r="B512" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="513" customHeight="1" ht="18.75">
       <c r="A513" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="B513" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="514">
+      <c r="B513" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="514" customHeight="1" ht="18.75">
       <c r="A514" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="B514" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="515">
+      <c r="B514" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="515" customHeight="1" ht="18.75">
       <c r="A515" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="B515" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="516">
+      <c r="B515" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="516" customHeight="1" ht="18.75">
       <c r="A516" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="B516" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="517">
+      <c r="B516" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="517" customHeight="1" ht="18.75">
       <c r="A517" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="B517" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="518">
+      <c r="B517" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="518" customHeight="1" ht="18.75">
       <c r="A518" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B518" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="519">
+      <c r="B518" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="519" customHeight="1" ht="18.75">
       <c r="A519" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="B519" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="520">
+      <c r="B519" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="520" customHeight="1" ht="18.75">
       <c r="A520" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B520" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="521">
+      <c r="B520" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="521" customHeight="1" ht="18.75">
       <c r="A521" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="B521" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="522">
+      <c r="B521" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="522" customHeight="1" ht="18.75">
       <c r="A522" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="B522" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="523">
+      <c r="B522" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="523" customHeight="1" ht="18.75">
       <c r="A523" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="B523" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="524">
+      <c r="B523" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="524" customHeight="1" ht="18.75">
       <c r="A524" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="B524" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="525">
+      <c r="B524" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="525" customHeight="1" ht="18.75">
       <c r="A525" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="B525" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="526">
+      <c r="B525" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="526" customHeight="1" ht="18.75">
       <c r="A526" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B526" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="527">
+      <c r="B526" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="527" customHeight="1" ht="18.75">
       <c r="A527" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="B527" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="528">
+      <c r="B527" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="528" customHeight="1" ht="18.75">
       <c r="A528" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="B528" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="529">
+      <c r="B528" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="529" customHeight="1" ht="18.75">
       <c r="A529" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="B529" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="530">
+      <c r="B529" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="530" customHeight="1" ht="18.75">
       <c r="A530" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="B530" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="531">
+      <c r="B530" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="531" customHeight="1" ht="18.75">
       <c r="A531" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="B531" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="532">
+      <c r="B531" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="532" customHeight="1" ht="18.75">
       <c r="A532" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B532" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="533">
+      <c r="B532" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="533" customHeight="1" ht="18.75">
       <c r="A533" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B533" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="534">
+      <c r="B533" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="534" customHeight="1" ht="18.75">
       <c r="A534" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="B534" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="535">
+      <c r="B534" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="535" customHeight="1" ht="18.75">
       <c r="A535" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="B535" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="536">
+      <c r="B535" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="536" customHeight="1" ht="18.75">
       <c r="A536" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="B536" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="537">
+      <c r="B536" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="537" customHeight="1" ht="18.75">
       <c r="A537" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B537" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="538">
+      <c r="B537" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="538" customHeight="1" ht="18.75">
       <c r="A538" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="B538" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="539">
+      <c r="B538" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="539" customHeight="1" ht="18.75">
       <c r="A539" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="B539" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="540">
+      <c r="B539" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="540" customHeight="1" ht="18.75">
       <c r="A540" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="B540" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="541">
+      <c r="B540" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="541" customHeight="1" ht="18.75">
       <c r="A541" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="B541" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="542">
+      <c r="B541" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="542" customHeight="1" ht="18.75">
       <c r="A542" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="B542" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="543">
+      <c r="B542" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="543" customHeight="1" ht="18.75">
       <c r="A543" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="B543" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="544">
+      <c r="B543" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="544" customHeight="1" ht="18.75">
       <c r="A544" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="B544" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="545">
+      <c r="B544" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="545" customHeight="1" ht="18.75">
       <c r="A545" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="B545" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="546">
+      <c r="B545" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="546" customHeight="1" ht="18.75">
       <c r="A546" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="B546" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="547">
+      <c r="B546" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="547" customHeight="1" ht="18.75">
       <c r="A547" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B547" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="548">
+      <c r="B547" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="548" customHeight="1" ht="18.75">
       <c r="A548" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B548" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="549">
+      <c r="B548" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="549" customHeight="1" ht="18.75">
       <c r="A549" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="B549" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="550">
+      <c r="B549" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="550" customHeight="1" ht="18.75">
       <c r="A550" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="B550" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="551">
+      <c r="B550" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="551" customHeight="1" ht="18.75">
       <c r="A551" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="B551" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="552">
+      <c r="B551" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="552" customHeight="1" ht="18.75">
       <c r="A552" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="B552" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="553">
+      <c r="B552" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="553" customHeight="1" ht="18.75">
       <c r="A553" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B553" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="554">
+      <c r="B553" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="554" customHeight="1" ht="18.75">
       <c r="A554" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="B554" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="555">
+      <c r="B554" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="555" customHeight="1" ht="18.75">
       <c r="A555" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="B555" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="556">
+      <c r="B555" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="556" customHeight="1" ht="18.75">
       <c r="A556" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="B556" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="557">
+      <c r="B556" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="557" customHeight="1" ht="18.75">
       <c r="A557" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="B557" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="558">
+      <c r="B557" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="558" customHeight="1" ht="18.75">
       <c r="A558" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="B558" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="559">
+      <c r="B558" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="559" customHeight="1" ht="18.75">
       <c r="A559" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="B559" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="560">
+      <c r="B559" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="560" customHeight="1" ht="18.75">
       <c r="A560" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="B560" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="561">
+      <c r="B560" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="561" customHeight="1" ht="18.75">
       <c r="A561" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="B561" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="562">
+      <c r="B561" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="562" customHeight="1" ht="18.75">
       <c r="A562" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="B562" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="563">
+      <c r="B562" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="563" customHeight="1" ht="18.75">
       <c r="A563" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="B563" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="564">
+      <c r="B563" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="564" customHeight="1" ht="18.75">
       <c r="A564" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="B564" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="565">
+      <c r="B564" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="565" customHeight="1" ht="18.75">
       <c r="A565" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="B565" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="566">
+      <c r="B565" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="566" customHeight="1" ht="18.75">
       <c r="A566" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="B566" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="567">
+      <c r="B566" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="567" customHeight="1" ht="18.75">
       <c r="A567" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="B567" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="568">
+      <c r="B567" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="568" customHeight="1" ht="18.75">
       <c r="A568" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="B568" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="569">
+      <c r="B568" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="569" customHeight="1" ht="18.75">
       <c r="A569" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="B569" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="570">
+      <c r="B569" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="570" customHeight="1" ht="18.75">
       <c r="A570" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="B570" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="571">
+      <c r="B570" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="571" customHeight="1" ht="18.75">
       <c r="A571" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="B571" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="572">
+      <c r="B571" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="572" customHeight="1" ht="18.75">
       <c r="A572" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B572" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="573">
+      <c r="B572" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="573" customHeight="1" ht="18.75">
       <c r="A573" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="B573" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="574">
+      <c r="B573" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="574" customHeight="1" ht="18.75">
       <c r="A574" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="B574" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="575">
+      <c r="B574" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="575" customHeight="1" ht="18.75">
       <c r="A575" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="B575" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="576">
+      <c r="B575" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="576" customHeight="1" ht="18.75">
       <c r="A576" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="B576" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="577">
+      <c r="B576" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="577" customHeight="1" ht="18.75">
       <c r="A577" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B577" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="578">
+      <c r="B577" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="578" customHeight="1" ht="18.75">
       <c r="A578" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="B578" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="579">
+      <c r="B578" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="579" customHeight="1" ht="18.75">
       <c r="A579" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B579" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="580">
+      <c r="B579" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="580" customHeight="1" ht="18.75">
       <c r="A580" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="B580" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="581">
+      <c r="B580" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="581" customHeight="1" ht="18.75">
       <c r="A581" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="B581" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="582">
+      <c r="B581" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="582" customHeight="1" ht="18.75">
       <c r="A582" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="B582" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="583">
+      <c r="B582" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="583" customHeight="1" ht="18.75">
       <c r="A583" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="B583" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="584">
+      <c r="B583" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="584" customHeight="1" ht="18.75">
       <c r="A584" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="B584" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="585">
+      <c r="B584" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="585" customHeight="1" ht="18.75">
       <c r="A585" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="B585" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="586">
+      <c r="B585" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="586" customHeight="1" ht="18.75">
       <c r="A586" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="B586" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="587">
+      <c r="B586" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="587" customHeight="1" ht="18.75">
       <c r="A587" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="B587" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="588">
+      <c r="B587" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="588" customHeight="1" ht="18.75">
       <c r="A588" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="B588" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="589">
+      <c r="B588" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="589" customHeight="1" ht="18.75">
       <c r="A589" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="B589" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="590">
+      <c r="B589" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="590" customHeight="1" ht="18.75">
       <c r="A590" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="B590" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="591">
+      <c r="B590" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="591" customHeight="1" ht="18.75">
       <c r="A591" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="B591" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="592">
+      <c r="B591" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="592" customHeight="1" ht="18.75">
       <c r="A592" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B592" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="593">
+      <c r="B592" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="593" customHeight="1" ht="18.75">
       <c r="A593" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="B593" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="594">
+      <c r="B593" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="594" customHeight="1" ht="18.75">
       <c r="A594" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B594" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="595">
+      <c r="B594" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="595" customHeight="1" ht="18.75">
       <c r="A595" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B595" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="596">
+      <c r="B595" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="596" customHeight="1" ht="18.75">
       <c r="A596" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="B596" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="597">
+      <c r="B596" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="597" customHeight="1" ht="18.75">
       <c r="A597" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B597" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="598">
+      <c r="B597" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="598" customHeight="1" ht="18.75">
       <c r="A598" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="B598" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="599">
+      <c r="B598" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="599" customHeight="1" ht="18.75">
       <c r="A599" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="B599" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="600">
+      <c r="B599" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="600" customHeight="1" ht="18.75">
       <c r="A600" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="B600" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="601">
+      <c r="B600" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="601" customHeight="1" ht="18.75">
       <c r="A601" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="B601" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="602">
+      <c r="B601" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="602" customHeight="1" ht="18.75">
       <c r="A602" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="B602" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="603">
+      <c r="B602" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="603" customHeight="1" ht="18.75">
       <c r="A603" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="B603" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="604">
+      <c r="B603" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="604" customHeight="1" ht="18.75">
       <c r="A604" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B604" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="605">
+      <c r="B604" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="605" customHeight="1" ht="18.75">
       <c r="A605" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="B605" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="606">
+      <c r="B605" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="606" customHeight="1" ht="18.75">
       <c r="A606" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="B606" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="607">
+      <c r="B606" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="607" customHeight="1" ht="18.75">
       <c r="A607" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="B607" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="608">
+      <c r="B607" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="608" customHeight="1" ht="18.75">
       <c r="A608" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="B608" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="609">
+      <c r="B608" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="609" customHeight="1" ht="18.75">
       <c r="A609" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="B609" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="610">
+      <c r="B609" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="610" customHeight="1" ht="18.75">
       <c r="A610" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="B610" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="611">
+      <c r="B610" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="611" customHeight="1" ht="18.75">
       <c r="A611" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B611" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="612">
+      <c r="B611" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="612" customHeight="1" ht="18.75">
       <c r="A612" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="B612" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="613">
+      <c r="B612" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="613" customHeight="1" ht="18.75">
       <c r="A613" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="B613" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="614">
+      <c r="B613" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="614" customHeight="1" ht="18.75">
       <c r="A614" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="B614" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="615">
+      <c r="B614" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="615" customHeight="1" ht="18.75">
       <c r="A615" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="B615" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="616">
+      <c r="B615" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="616" customHeight="1" ht="18.75">
       <c r="A616" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="B616" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="617">
+      <c r="B616" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="617" customHeight="1" ht="18.75">
       <c r="A617" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B617" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="618">
+      <c r="B617" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="618" customHeight="1" ht="18.75">
       <c r="A618" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="B618" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="619">
+      <c r="B618" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="619" customHeight="1" ht="18.75">
       <c r="A619" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="B619" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="620">
+      <c r="B619" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="620" customHeight="1" ht="18.75">
       <c r="A620" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="B620" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="621">
+      <c r="B620" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="621" customHeight="1" ht="18.75">
       <c r="A621" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="B621" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="622">
+      <c r="B621" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="622" customHeight="1" ht="18.75">
       <c r="A622" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B622" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="623">
+      <c r="B622" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="623" customHeight="1" ht="18.75">
       <c r="A623" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="B623" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="624">
+      <c r="B623" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="624" customHeight="1" ht="18.75">
       <c r="A624" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="B624" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="625">
+      <c r="B624" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="625" customHeight="1" ht="18.75">
       <c r="A625" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="B625" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="626">
+      <c r="B625" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="626" customHeight="1" ht="18.75">
       <c r="A626" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="B626" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="627">
+      <c r="B626" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="627" customHeight="1" ht="18.75">
       <c r="A627" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="B627" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="628">
+      <c r="B627" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="628" customHeight="1" ht="18.75">
       <c r="A628" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="B628" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="629">
+      <c r="B628" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="629" customHeight="1" ht="18.75">
       <c r="A629" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="B629" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="630">
+      <c r="B629" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="630" customHeight="1" ht="18.75">
       <c r="A630" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="B630" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="631">
+      <c r="B630" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="631" customHeight="1" ht="18.75">
       <c r="A631" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="B631" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="632">
+      <c r="B631" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="632" customHeight="1" ht="18.75">
       <c r="A632" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="B632" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="633">
+      <c r="B632" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="633" customHeight="1" ht="18.75">
       <c r="A633" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="B633" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="634">
+      <c r="B633" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="634" customHeight="1" ht="18.75">
       <c r="A634" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="B634" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="635">
+      <c r="B634" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="635" customHeight="1" ht="18.75">
       <c r="A635" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B635" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="636">
+      <c r="B635" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="636" customHeight="1" ht="18.75">
       <c r="A636" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="B636" s="1">
-        <v>3.0</v>
+      <c r="B636" s="3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>